--- a/results/multilabel/41473/automl.xlsx
+++ b/results/multilabel/41473/automl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,12 +528,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.324</t>
+          <t>0.332</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,17 +548,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.157</t>
+          <t>0.172</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.212</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.198</t>
+          <t>0.227</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -578,32 +578,119 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.524</t>
+          <t>0.532</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>13.919</t>
+          <t>13.893</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.409</t>
+          <t>0.424</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.855</t>
+          <t>0.834</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>00:01:16</t>
+          <t>00:01:21</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>autosklearn</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.384</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.395</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.639</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.590</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.590</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>11.380</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.621</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.453</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>00:18:22</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>00:00:02</t>
         </is>
       </c>
     </row>
